--- a/lib.xlsx
+++ b/lib.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangh\Desktop\绘制拓扑图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangh\Desktop\Directed_Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB016945-3290-4842-B395-0D0012FAD2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D90A15-73CE-4F31-AA35-0EC137AB9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,65 +143,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,124 +443,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="25" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="3">
         <v>45340</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="3">
         <v>45341</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="4">
         <v>45342</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="4">
         <v>45342</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="4">
         <v>45343</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="4">
         <v>45343</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="3">
         <v>45344</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="3">
         <v>45345</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="4">
         <v>45350</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="4">
         <v>45350</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="3">
         <v>45351</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="3">
         <v>45358</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="3">
         <v>45362</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="4"/>
+      <c r="P1" s="3">
+        <v>45364</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>45364</v>
+      </c>
+      <c r="R1" s="3">
+        <v>45371</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="1"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="2"/>
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="M5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="2"/>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="2"/>
       <c r="D7">
         <v>0</v>
       </c>
@@ -622,21 +622,36 @@
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="2"/>
       <c r="F9">
         <v>1</v>
       </c>
@@ -646,13 +661,11 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lib.xlsx
+++ b/lib.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangh\Desktop\Directed_Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D90A15-73CE-4F31-AA35-0EC137AB9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2284D0-12C9-494D-8609-9C32EB4DA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -443,16 +443,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="13" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="11.3984375" customWidth="1"/>
+    <col min="20" max="25" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
@@ -483,37 +484,51 @@
       <c r="J1" s="3">
         <v>45345</v>
       </c>
-      <c r="K1" s="4">
-        <v>45350</v>
+      <c r="K1" s="3">
+        <v>45345</v>
       </c>
       <c r="L1" s="4">
         <v>45350</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
+        <v>45350</v>
+      </c>
+      <c r="N1" s="3">
         <v>45351</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>45358</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>45362</v>
-      </c>
-      <c r="P1" s="3">
-        <v>45364</v>
       </c>
       <c r="Q1" s="3">
         <v>45364</v>
       </c>
       <c r="R1" s="3">
+        <v>45364</v>
+      </c>
+      <c r="S1" s="3">
         <v>45371</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="T1" s="3">
+        <v>45372</v>
+      </c>
+      <c r="U1" s="3">
+        <v>45372</v>
+      </c>
+      <c r="V1" s="3">
+        <v>45372</v>
+      </c>
+      <c r="W1" s="3">
+        <v>45373</v>
+      </c>
+      <c r="X1" s="3">
+        <v>45373</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>45379</v>
+      </c>
     </row>
     <row r="2" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -526,19 +541,34 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
     </row>
@@ -565,22 +595,28 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
@@ -589,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
@@ -604,6 +640,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -622,10 +661,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
     </row>
@@ -640,11 +679,17 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="14.25" x14ac:dyDescent="0.4">
@@ -661,12 +706,19 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>